--- a/export_xlsx.xlsx
+++ b/export_xlsx.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>foo</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>2017-05-09 17:11:52.255161089 +0800 CST</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -465,6 +471,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,6 +481,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -481,6 +491,9 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/export_xlsx.xlsx
+++ b/export_xlsx.xlsx
@@ -40,7 +40,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>2017-05-09 17:11:52.255161089 +0800 CST</t>
+    <t>2017-05-09</t>
   </si>
 </sst>
 </file>

--- a/export_xlsx.xlsx
+++ b/export_xlsx.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>foo</t>
   </si>
@@ -28,6 +28,9 @@
     <t>bar</t>
   </si>
   <si>
+    <t>foobar</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>3.14</t>
   </si>
   <si>
     <t>time</t>
@@ -410,7 +416,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -421,6 +427,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -433,16 +440,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -482,18 +495,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
